--- a/team/recettes/mug cake.xlsx
+++ b/team/recettes/mug cake.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA981669-8B7E-4024-AA90-6D327C6B8601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F2EF7-2FFE-4D49-9468-15895D839788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8508" yWindow="180" windowWidth="13548" windowHeight="8880" xr2:uid="{608AB045-39F4-4BB0-ACB0-3EE63F24801A}"/>
+    <workbookView xWindow="11580" yWindow="4704" windowWidth="13548" windowHeight="8880" xr2:uid="{608AB045-39F4-4BB0-ACB0-3EE63F24801A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>Mettre au four à micro-ondes pendant 3 minutes, puis laisser refroidir 5 minutes.</t>
   </si>
   <si>
-    <t>farine</t>
-  </si>
-  <si>
     <t>4c.à.s</t>
   </si>
   <si>
@@ -94,19 +91,22 @@
     <t>1/2u</t>
   </si>
   <si>
-    <t>sucre en poudre</t>
-  </si>
-  <si>
-    <t>chocolat en poudre</t>
-  </si>
-  <si>
-    <t>huile d'olive</t>
-  </si>
-  <si>
-    <t>banane</t>
-  </si>
-  <si>
-    <t>lait végétal</t>
+    <t>Farine de blé tendre ou froment T45 (pour pâtisserie)</t>
+  </si>
+  <si>
+    <t>Sucre blanc</t>
+  </si>
+  <si>
+    <t>Poudre cacaotée ou au chocolat pour boisson, sucrée</t>
+  </si>
+  <si>
+    <t>Huile d'olive</t>
+  </si>
+  <si>
+    <t>Banane, pulpe, crue</t>
+  </si>
+  <si>
+    <t>Lait végétal</t>
   </si>
 </sst>
 </file>
@@ -468,10 +468,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -501,10 +504,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -524,7 +527,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -535,7 +538,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -546,7 +549,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -557,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -565,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -574,6 +577,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A2AB9DD5B10D944B262093A9AAF3CC9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="caf85472f4fcfb3a743cda56875ddfb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea62a05a-5154-454e-812a-649395124f9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93d9d3ea68f631e42d39596aacd92f9a" ns3:_="">
     <xsd:import namespace="ea62a05a-5154-454e-812a-649395124f9d"/>
@@ -719,22 +737,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804646B5-6839-44CE-89AA-383440450173}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C657FD35-AA6F-4A5F-9388-70C86DBD404E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8B0E7C-544C-4F53-864D-18606C17F240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -750,28 +777,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C657FD35-AA6F-4A5F-9388-70C86DBD404E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804646B5-6839-44CE-89AA-383440450173}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/team/recettes/mug cake.xlsx
+++ b/team/recettes/mug cake.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F2EF7-2FFE-4D49-9468-15895D839788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE540F-F3D7-4E40-964A-3923AC6C0063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="4704" windowWidth="13548" windowHeight="8880" xr2:uid="{608AB045-39F4-4BB0-ACB0-3EE63F24801A}"/>
+    <workbookView xWindow="9672" yWindow="48" windowWidth="13548" windowHeight="8880" xr2:uid="{608AB045-39F4-4BB0-ACB0-3EE63F24801A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Nom</t>
   </si>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>Lait végétal</t>
+  </si>
+  <si>
+    <t>Quantité Ingredient</t>
   </si>
 </sst>
 </file>
@@ -465,18 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDA3B92-B884-4FE1-B86A-983F009613B8}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,90 +488,111 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -577,21 +602,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A2AB9DD5B10D944B262093A9AAF3CC9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="caf85472f4fcfb3a743cda56875ddfb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea62a05a-5154-454e-812a-649395124f9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93d9d3ea68f631e42d39596aacd92f9a" ns3:_="">
     <xsd:import namespace="ea62a05a-5154-454e-812a-649395124f9d"/>
@@ -737,31 +747,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804646B5-6839-44CE-89AA-383440450173}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C657FD35-AA6F-4A5F-9388-70C86DBD404E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8B0E7C-544C-4F53-864D-18606C17F240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -777,4 +778,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C657FD35-AA6F-4A5F-9388-70C86DBD404E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804646B5-6839-44CE-89AA-383440450173}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>